--- a/Herramientas.xlsx
+++ b/Herramientas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayfo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayfo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75EF9BC8-3BEB-4EB4-A1CF-5A40B7F6AD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB1157C-D98D-4078-A850-A78D5BAFCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{537E341A-5FEC-40B3-9BE4-5BE702E41C07}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -264,15 +264,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,20 +588,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDA5603-9AC3-4C7A-8133-43012FAC7548}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1501</v>
       </c>
@@ -650,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1601</v>
       </c>
@@ -673,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1701</v>
       </c>
@@ -696,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1801</v>
       </c>
@@ -719,7 +720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1901</v>
       </c>
@@ -741,6 +742,15 @@
       <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
